--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_compo_XAI_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_compo_XAI_swish.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>286.634033203125</v>
+        <v>275.6566467285156</v>
       </c>
       <c r="H2" t="n">
-        <v>38.66702651977539</v>
+        <v>37.77337265014648</v>
       </c>
       <c r="I2" t="n">
-        <v>727.4667358398438</v>
+        <v>728.8999633789062</v>
       </c>
       <c r="J2" t="n">
-        <v>36.29025268554688</v>
+        <v>41.11751937866211</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>352.2054443359375</v>
+        <v>337.3184509277344</v>
       </c>
       <c r="H3" t="n">
-        <v>38.6031379699707</v>
+        <v>37.82985687255859</v>
       </c>
       <c r="I3" t="n">
-        <v>772.5487670898438</v>
+        <v>779.0947875976562</v>
       </c>
       <c r="J3" t="n">
-        <v>45.70605850219727</v>
+        <v>51.82044982910156</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>419.3195495605469</v>
+        <v>400.865234375</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91769409179688</v>
+        <v>35.55615615844727</v>
       </c>
       <c r="I4" t="n">
-        <v>805.1376953125</v>
+        <v>815.6326293945312</v>
       </c>
       <c r="J4" t="n">
-        <v>56.93412780761719</v>
+        <v>61.95095062255859</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>491.5514831542969</v>
+        <v>470.1160583496094</v>
       </c>
       <c r="H5" t="n">
-        <v>34.60721588134766</v>
+        <v>31.63697814941406</v>
       </c>
       <c r="I5" t="n">
-        <v>837.9251098632812</v>
+        <v>851.710693359375</v>
       </c>
       <c r="J5" t="n">
-        <v>70.79378509521484</v>
+        <v>72.90180969238281</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>577.5121459960938</v>
+        <v>553.9680786132812</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86006546020508</v>
+        <v>26.5239372253418</v>
       </c>
       <c r="I6" t="n">
-        <v>873.088623046875</v>
+        <v>887.6235961914062</v>
       </c>
       <c r="J6" t="n">
-        <v>91.69499969482422</v>
+        <v>87.27268218994141</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>207.5709838867188</v>
+        <v>203.1129608154297</v>
       </c>
       <c r="H7" t="n">
-        <v>31.9305591583252</v>
+        <v>30.27355003356934</v>
       </c>
       <c r="I7" t="n">
-        <v>591.56005859375</v>
+        <v>589.6943969726562</v>
       </c>
       <c r="J7" t="n">
-        <v>21.21927642822266</v>
+        <v>28.82192802429199</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>235.2390747070312</v>
+        <v>229.6512298583984</v>
       </c>
       <c r="H8" t="n">
-        <v>30.28433036804199</v>
+        <v>29.58929443359375</v>
       </c>
       <c r="I8" t="n">
-        <v>652.7313842773438</v>
+        <v>652.0182495117188</v>
       </c>
       <c r="J8" t="n">
-        <v>27.38572311401367</v>
+        <v>33.63479232788086</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>295.7818908691406</v>
+        <v>288.2626037597656</v>
       </c>
       <c r="H9" t="n">
-        <v>29.04864692687988</v>
+        <v>28.45412445068359</v>
       </c>
       <c r="I9" t="n">
-        <v>731.7536010742188</v>
+        <v>734.7542114257812</v>
       </c>
       <c r="J9" t="n">
-        <v>39.36285018920898</v>
+        <v>44.99799728393555</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>354.837158203125</v>
+        <v>345.5036926269531</v>
       </c>
       <c r="H10" t="n">
-        <v>28.47848701477051</v>
+        <v>27.16260147094727</v>
       </c>
       <c r="I10" t="n">
-        <v>782.9738159179688</v>
+        <v>789.08203125</v>
       </c>
       <c r="J10" t="n">
-        <v>50.39575958251953</v>
+        <v>55.00797653198242</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>442.6769104003906</v>
+        <v>430.8375244140625</v>
       </c>
       <c r="H11" t="n">
-        <v>27.19547271728516</v>
+        <v>24.64217376708984</v>
       </c>
       <c r="I11" t="n">
-        <v>846.8981323242188</v>
+        <v>856.2367553710938</v>
       </c>
       <c r="J11" t="n">
-        <v>69.05692291259766</v>
+        <v>69.79887390136719</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>525.4407348632812</v>
+        <v>512.1994018554688</v>
       </c>
       <c r="H12" t="n">
-        <v>26.26132965087891</v>
+        <v>21.84511375427246</v>
       </c>
       <c r="I12" t="n">
-        <v>909.148193359375</v>
+        <v>919.0452270507812</v>
       </c>
       <c r="J12" t="n">
-        <v>96.49141693115234</v>
+        <v>88.19736480712891</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>621.7174682617188</v>
+        <v>608.7296142578125</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92911529541016</v>
+        <v>22.78986930847168</v>
       </c>
       <c r="I13" t="n">
-        <v>990.012939453125</v>
+        <v>995.4852905273438</v>
       </c>
       <c r="J13" t="n">
-        <v>133.6461944580078</v>
+        <v>109.4054489135742</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>173.9779510498047</v>
+        <v>172.3538360595703</v>
       </c>
       <c r="H14" t="n">
-        <v>38.22356796264648</v>
+        <v>29.21174621582031</v>
       </c>
       <c r="I14" t="n">
-        <v>372.5804138183594</v>
+        <v>378.0132141113281</v>
       </c>
       <c r="J14" t="n">
-        <v>21.73219871520996</v>
+        <v>28.65113067626953</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>190.5684356689453</v>
+        <v>187.904052734375</v>
       </c>
       <c r="H15" t="n">
-        <v>31.37071418762207</v>
+        <v>27.32907104492188</v>
       </c>
       <c r="I15" t="n">
-        <v>480.3311767578125</v>
+        <v>482.8603820800781</v>
       </c>
       <c r="J15" t="n">
-        <v>17.40806198120117</v>
+        <v>29.78198623657227</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>240.9202117919922</v>
+        <v>238.1669464111328</v>
       </c>
       <c r="H16" t="n">
-        <v>22.58137893676758</v>
+        <v>25.99738311767578</v>
       </c>
       <c r="I16" t="n">
-        <v>620.6945190429688</v>
+        <v>622.8226318359375</v>
       </c>
       <c r="J16" t="n">
-        <v>25.24641799926758</v>
+        <v>37.28137588500977</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>250.2480621337891</v>
+        <v>246.9152069091797</v>
       </c>
       <c r="H17" t="n">
-        <v>22.40189361572266</v>
+        <v>23.5784797668457</v>
       </c>
       <c r="I17" t="n">
-        <v>649.1316528320312</v>
+        <v>650.8806762695312</v>
       </c>
       <c r="J17" t="n">
-        <v>32.15356826782227</v>
+        <v>42.87529373168945</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>305.2235107421875</v>
+        <v>301.7647399902344</v>
       </c>
       <c r="H18" t="n">
-        <v>21.36365509033203</v>
+        <v>22.42777252197266</v>
       </c>
       <c r="I18" t="n">
-        <v>738.8512573242188</v>
+        <v>742.4052124023438</v>
       </c>
       <c r="J18" t="n">
-        <v>44.85566711425781</v>
+        <v>53.30455780029297</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>386.7911376953125</v>
+        <v>382.9656066894531</v>
       </c>
       <c r="H19" t="n">
-        <v>21.1955680847168</v>
+        <v>22.35891151428223</v>
       </c>
       <c r="I19" t="n">
-        <v>837.680908203125</v>
+        <v>842.0126953125</v>
       </c>
       <c r="J19" t="n">
-        <v>68.72718811035156</v>
+        <v>71.94326782226562</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>474.8491516113281</v>
+        <v>470.3081970214844</v>
       </c>
       <c r="H20" t="n">
-        <v>20.82224082946777</v>
+        <v>22.90995407104492</v>
       </c>
       <c r="I20" t="n">
-        <v>928.467041015625</v>
+        <v>932.5236206054688</v>
       </c>
       <c r="J20" t="n">
-        <v>96.42365264892578</v>
+        <v>89.19505310058594</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>578.0223999023438</v>
+        <v>573.317626953125</v>
       </c>
       <c r="H21" t="n">
-        <v>21.09189224243164</v>
+        <v>24.32432746887207</v>
       </c>
       <c r="I21" t="n">
-        <v>1031.215576171875</v>
+        <v>1031.049926757812</v>
       </c>
       <c r="J21" t="n">
-        <v>140.5534057617188</v>
+        <v>111.7129669189453</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>693.9207153320312</v>
+        <v>687.0164184570312</v>
       </c>
       <c r="H22" t="n">
-        <v>24.66794586181641</v>
+        <v>27.58961486816406</v>
       </c>
       <c r="I22" t="n">
-        <v>1140.180786132812</v>
+        <v>1132.941284179688</v>
       </c>
       <c r="J22" t="n">
-        <v>197.4009704589844</v>
+        <v>136.8514404296875</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>176.3702392578125</v>
+        <v>174.5260467529297</v>
       </c>
       <c r="H23" t="n">
-        <v>38.65686416625977</v>
+        <v>27.03913116455078</v>
       </c>
       <c r="I23" t="n">
-        <v>255.1534576416016</v>
+        <v>268.51318359375</v>
       </c>
       <c r="J23" t="n">
-        <v>43.85422897338867</v>
+        <v>38.32705688476562</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>185.3000030517578</v>
+        <v>182.8235626220703</v>
       </c>
       <c r="H24" t="n">
-        <v>33.08656311035156</v>
+        <v>24.66474151611328</v>
       </c>
       <c r="I24" t="n">
-        <v>327.4265441894531</v>
+        <v>338.6683044433594</v>
       </c>
       <c r="J24" t="n">
-        <v>35.78522872924805</v>
+        <v>37.6745491027832</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>204.1112060546875</v>
+        <v>201.7353515625</v>
       </c>
       <c r="H25" t="n">
-        <v>25.48169326782227</v>
+        <v>22.27590751647949</v>
       </c>
       <c r="I25" t="n">
-        <v>440.787109375</v>
+        <v>448.7335205078125</v>
       </c>
       <c r="J25" t="n">
-        <v>25.55756950378418</v>
+        <v>37.63203430175781</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>229.2060089111328</v>
+        <v>227.4008941650391</v>
       </c>
       <c r="H26" t="n">
-        <v>20.3442440032959</v>
+        <v>20.8374080657959</v>
       </c>
       <c r="I26" t="n">
-        <v>540.3143920898438</v>
+        <v>546.0194091796875</v>
       </c>
       <c r="J26" t="n">
-        <v>24.67882537841797</v>
+        <v>41.57063293457031</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>270.3197937011719</v>
+        <v>269.8039855957031</v>
       </c>
       <c r="H27" t="n">
-        <v>17.61980819702148</v>
+        <v>20.66864395141602</v>
       </c>
       <c r="I27" t="n">
-        <v>647.243408203125</v>
+        <v>651.5877075195312</v>
       </c>
       <c r="J27" t="n">
-        <v>35.32067489624023</v>
+        <v>52.62276458740234</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>343.3282775878906</v>
+        <v>344.0143737792969</v>
       </c>
       <c r="H28" t="n">
-        <v>18.94795036315918</v>
+        <v>23.05538940429688</v>
       </c>
       <c r="I28" t="n">
-        <v>792.9341430664062</v>
+        <v>794.88720703125</v>
       </c>
       <c r="J28" t="n">
-        <v>61.65248107910156</v>
+        <v>72.43401336669922</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>425.3998718261719</v>
+        <v>426.74560546875</v>
       </c>
       <c r="H29" t="n">
-        <v>19.94321441650391</v>
+        <v>25.68948745727539</v>
       </c>
       <c r="I29" t="n">
-        <v>915.7050170898438</v>
+        <v>914.80810546875</v>
       </c>
       <c r="J29" t="n">
-        <v>94.64726257324219</v>
+        <v>91.84488677978516</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>545.680908203125</v>
+        <v>547.2735595703125</v>
       </c>
       <c r="H30" t="n">
-        <v>20.19349479675293</v>
+        <v>28.65627861022949</v>
       </c>
       <c r="I30" t="n">
-        <v>1068.147338867188</v>
+        <v>1059.455932617188</v>
       </c>
       <c r="J30" t="n">
-        <v>144.8354797363281</v>
+        <v>112.7078323364258</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>662.1923217773438</v>
+        <v>662.5748291015625</v>
       </c>
       <c r="H31" t="n">
-        <v>21.42496490478516</v>
+        <v>28.0893497467041</v>
       </c>
       <c r="I31" t="n">
-        <v>1192.613159179688</v>
+        <v>1176.847778320312</v>
       </c>
       <c r="J31" t="n">
-        <v>205.7191925048828</v>
+        <v>133.8538360595703</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>182.2197418212891</v>
+        <v>179.2235717773438</v>
       </c>
       <c r="H32" t="n">
-        <v>39.1175651550293</v>
+        <v>25.1068172454834</v>
       </c>
       <c r="I32" t="n">
-        <v>119.948860168457</v>
+        <v>140.4651641845703</v>
       </c>
       <c r="J32" t="n">
-        <v>71.64250946044922</v>
+        <v>52.58083343505859</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>191.5557403564453</v>
+        <v>188.4533538818359</v>
       </c>
       <c r="H33" t="n">
-        <v>31.73815155029297</v>
+        <v>22.08751106262207</v>
       </c>
       <c r="I33" t="n">
-        <v>210.47216796875</v>
+        <v>229.85009765625</v>
       </c>
       <c r="J33" t="n">
-        <v>63.90518951416016</v>
+        <v>50.47470855712891</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>206.5025634765625</v>
+        <v>203.9479827880859</v>
       </c>
       <c r="H34" t="n">
-        <v>24.63179397583008</v>
+        <v>19.68832397460938</v>
       </c>
       <c r="I34" t="n">
-        <v>317.1717529296875</v>
+        <v>333.6029968261719</v>
       </c>
       <c r="J34" t="n">
-        <v>51.18792343139648</v>
+        <v>47.14069366455078</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>228.2723388671875</v>
+        <v>226.8884887695312</v>
       </c>
       <c r="H35" t="n">
-        <v>19.20355415344238</v>
+        <v>18.63510704040527</v>
       </c>
       <c r="I35" t="n">
-        <v>416.06298828125</v>
+        <v>429.4413757324219</v>
       </c>
       <c r="J35" t="n">
-        <v>40.64944839477539</v>
+        <v>47.24103927612305</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>267.2309265136719</v>
+        <v>267.9251403808594</v>
       </c>
       <c r="H36" t="n">
-        <v>17.30616188049316</v>
+        <v>20.50275039672852</v>
       </c>
       <c r="I36" t="n">
-        <v>577.6295776367188</v>
+        <v>585.2098388671875</v>
       </c>
       <c r="J36" t="n">
-        <v>33.7840461730957</v>
+        <v>54.80481719970703</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>315.8657531738281</v>
+        <v>318.7013854980469</v>
       </c>
       <c r="H37" t="n">
-        <v>19.73215103149414</v>
+        <v>24.50736236572266</v>
       </c>
       <c r="I37" t="n">
-        <v>715.25146484375</v>
+        <v>717.8704223632812</v>
       </c>
       <c r="J37" t="n">
-        <v>50.06572723388672</v>
+        <v>71.39252471923828</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>402.642578125</v>
+        <v>407.4729309082031</v>
       </c>
       <c r="H38" t="n">
-        <v>22.72536277770996</v>
+        <v>29.25901222229004</v>
       </c>
       <c r="I38" t="n">
-        <v>905.152587890625</v>
+        <v>899.697265625</v>
       </c>
       <c r="J38" t="n">
-        <v>92.66014099121094</v>
+        <v>94.4019775390625</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>496.3262939453125</v>
+        <v>502.3414306640625</v>
       </c>
       <c r="H39" t="n">
-        <v>22.93776512145996</v>
+        <v>31.42311859130859</v>
       </c>
       <c r="I39" t="n">
-        <v>1054.816528320312</v>
+        <v>1040.062866210938</v>
       </c>
       <c r="J39" t="n">
-        <v>145.6831359863281</v>
+        <v>114.992561340332</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>628.1422729492188</v>
+        <v>633.5728759765625</v>
       </c>
       <c r="H40" t="n">
-        <v>23.36048698425293</v>
+        <v>29.88789749145508</v>
       </c>
       <c r="I40" t="n">
-        <v>1227.95458984375</v>
+        <v>1200.84765625</v>
       </c>
       <c r="J40" t="n">
-        <v>210.162353515625</v>
+        <v>129.5938415527344</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>192.5641632080078</v>
+        <v>188.0349273681641</v>
       </c>
       <c r="H41" t="n">
-        <v>35.84356307983398</v>
+        <v>22.14792442321777</v>
       </c>
       <c r="I41" t="n">
-        <v>24.43814849853516</v>
+        <v>49.43857955932617</v>
       </c>
       <c r="J41" t="n">
-        <v>95.60902404785156</v>
+        <v>66.96875762939453</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>200.5570831298828</v>
+        <v>196.2287139892578</v>
       </c>
       <c r="H42" t="n">
-        <v>29.98457145690918</v>
+        <v>19.35267066955566</v>
       </c>
       <c r="I42" t="n">
-        <v>92.48764038085938</v>
+        <v>118.0833969116211</v>
       </c>
       <c r="J42" t="n">
-        <v>91.93442535400391</v>
+        <v>65.57356262207031</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>209.1123199462891</v>
+        <v>205.3203277587891</v>
       </c>
       <c r="H43" t="n">
-        <v>25.58469390869141</v>
+        <v>17.57369804382324</v>
       </c>
       <c r="I43" t="n">
-        <v>155.5198059082031</v>
+        <v>180.0640106201172</v>
       </c>
       <c r="J43" t="n">
-        <v>84.28903961181641</v>
+        <v>62.31172943115234</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>233.2928466796875</v>
+        <v>231.6640777587891</v>
       </c>
       <c r="H44" t="n">
-        <v>18.8992805480957</v>
+        <v>17.70218086242676</v>
       </c>
       <c r="I44" t="n">
-        <v>325.0788269042969</v>
+        <v>344.7612609863281</v>
       </c>
       <c r="J44" t="n">
-        <v>64.07514953613281</v>
+        <v>55.07629013061523</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>254.9690551757812</v>
+        <v>254.9912567138672</v>
       </c>
       <c r="H45" t="n">
-        <v>18.00079536437988</v>
+        <v>19.58379173278809</v>
       </c>
       <c r="I45" t="n">
-        <v>427.8542175292969</v>
+        <v>442.9223937988281</v>
       </c>
       <c r="J45" t="n">
-        <v>49.34795379638672</v>
+        <v>53.97777557373047</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>298.9905090332031</v>
+        <v>301.8847961425781</v>
       </c>
       <c r="H46" t="n">
-        <v>21.00388145446777</v>
+        <v>24.73239898681641</v>
       </c>
       <c r="I46" t="n">
-        <v>608.4689331054688</v>
+        <v>614.9207153320312</v>
       </c>
       <c r="J46" t="n">
-        <v>43.96368408203125</v>
+        <v>67.28307342529297</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>371.6112060546875</v>
+        <v>377.6826171875</v>
       </c>
       <c r="H47" t="n">
-        <v>26.0234489440918</v>
+        <v>31.0237979888916</v>
       </c>
       <c r="I47" t="n">
-        <v>830.6956176757812</v>
+        <v>824.0545043945312</v>
       </c>
       <c r="J47" t="n">
-        <v>85.05147552490234</v>
+        <v>95.39273071289062</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>476.3808898925781</v>
+        <v>484.5395202636719</v>
       </c>
       <c r="H48" t="n">
-        <v>27.19937324523926</v>
+        <v>34.34988784790039</v>
       </c>
       <c r="I48" t="n">
-        <v>1059.458129882812</v>
+        <v>1036.650390625</v>
       </c>
       <c r="J48" t="n">
-        <v>149.6622772216797</v>
+        <v>116.2632141113281</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>581.105712890625</v>
+        <v>589.4765625</v>
       </c>
       <c r="H49" t="n">
-        <v>26.53746795654297</v>
+        <v>32.24397659301758</v>
       </c>
       <c r="I49" t="n">
-        <v>1219.224731445312</v>
+        <v>1187.037963867188</v>
       </c>
       <c r="J49" t="n">
-        <v>204.22265625</v>
+        <v>125.0473098754883</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>204.5015258789062</v>
+        <v>198.492919921875</v>
       </c>
       <c r="H50" t="n">
-        <v>32.22553634643555</v>
+        <v>19.03264808654785</v>
       </c>
       <c r="I50" t="n">
-        <v>-77.38196563720703</v>
+        <v>-50.89982986450195</v>
       </c>
       <c r="J50" t="n">
-        <v>114.8384552001953</v>
+        <v>79.55522155761719</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>213.50390625</v>
+        <v>208.1625366210938</v>
       </c>
       <c r="H51" t="n">
-        <v>26.55449295043945</v>
+        <v>16.35515213012695</v>
       </c>
       <c r="I51" t="n">
-        <v>-2.47383189201355</v>
+        <v>26.12572288513184</v>
       </c>
       <c r="J51" t="n">
-        <v>112.1641845703125</v>
+        <v>77.93723297119141</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>221.0910797119141</v>
+        <v>216.4627685546875</v>
       </c>
       <c r="H52" t="n">
-        <v>23.39741325378418</v>
+        <v>15.44872188568115</v>
       </c>
       <c r="I52" t="n">
-        <v>47.32865524291992</v>
+        <v>75.65811920166016</v>
       </c>
       <c r="J52" t="n">
-        <v>106.032844543457</v>
+        <v>74.72779083251953</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>239.583984375</v>
+        <v>237.0957489013672</v>
       </c>
       <c r="H53" t="n">
-        <v>19.14823722839355</v>
+        <v>17.00592613220215</v>
       </c>
       <c r="I53" t="n">
-        <v>189.4229125976562</v>
+        <v>214.8123168945312</v>
       </c>
       <c r="J53" t="n">
-        <v>91.37613677978516</v>
+        <v>68.41527557373047</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>261.7441711425781</v>
+        <v>261.4952087402344</v>
       </c>
       <c r="H54" t="n">
-        <v>19.17256355285645</v>
+        <v>20.48796272277832</v>
       </c>
       <c r="I54" t="n">
-        <v>329.6847229003906</v>
+        <v>348.6189880371094</v>
       </c>
       <c r="J54" t="n">
-        <v>69.01814270019531</v>
+        <v>61.68889236450195</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>294.34375</v>
+        <v>296.7771301269531</v>
       </c>
       <c r="H55" t="n">
-        <v>22.35234069824219</v>
+        <v>25.35836219787598</v>
       </c>
       <c r="I55" t="n">
-        <v>507.493408203125</v>
+        <v>516.94482421875</v>
       </c>
       <c r="J55" t="n">
-        <v>51.16623687744141</v>
+        <v>66.18881225585938</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>343.8669128417969</v>
+        <v>349.2816162109375</v>
       </c>
       <c r="H56" t="n">
-        <v>27.07524108886719</v>
+        <v>30.77702903747559</v>
       </c>
       <c r="I56" t="n">
-        <v>697.8724975585938</v>
+        <v>694.0564575195312</v>
       </c>
       <c r="J56" t="n">
-        <v>76.45432281494141</v>
+        <v>92.79403686523438</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>426.2725830078125</v>
+        <v>434.5616149902344</v>
       </c>
       <c r="H57" t="n">
-        <v>31.19116973876953</v>
+        <v>35.74566268920898</v>
       </c>
       <c r="I57" t="n">
-        <v>967.708740234375</v>
+        <v>945.8170776367188</v>
       </c>
       <c r="J57" t="n">
-        <v>135.9617767333984</v>
+        <v>115.3735809326172</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>551.02734375</v>
+        <v>561.0119018554688</v>
       </c>
       <c r="H58" t="n">
-        <v>30.63060760498047</v>
+        <v>34.48293304443359</v>
       </c>
       <c r="I58" t="n">
-        <v>1214.975219726562</v>
+        <v>1173.291137695312</v>
       </c>
       <c r="J58" t="n">
-        <v>214.5842895507812</v>
+        <v>127.6779403686523</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>225.3002777099609</v>
+        <v>219.157470703125</v>
       </c>
       <c r="H59" t="n">
-        <v>24.17311096191406</v>
+        <v>14.85575771331787</v>
       </c>
       <c r="I59" t="n">
-        <v>-92.445556640625</v>
+        <v>-63.71883773803711</v>
       </c>
       <c r="J59" t="n">
-        <v>123.8862686157227</v>
+        <v>86.13861846923828</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>235.069091796875</v>
+        <v>230.1239471435547</v>
       </c>
       <c r="H60" t="n">
-        <v>21.03237724304199</v>
+        <v>15.42643165588379</v>
       </c>
       <c r="I60" t="n">
-        <v>-24.58632850646973</v>
+        <v>4.838182926177979</v>
       </c>
       <c r="J60" t="n">
-        <v>120.9285125732422</v>
+        <v>85.02876281738281</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>245.5755157470703</v>
+        <v>242.1185913085938</v>
       </c>
       <c r="H61" t="n">
-        <v>19.52958488464355</v>
+        <v>17.41117477416992</v>
       </c>
       <c r="I61" t="n">
-        <v>70.85357666015625</v>
+        <v>98.36893463134766</v>
       </c>
       <c r="J61" t="n">
-        <v>107.2383880615234</v>
+        <v>78.16780090332031</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>262.8428955078125</v>
+        <v>261.4707946777344</v>
       </c>
       <c r="H62" t="n">
-        <v>19.84778594970703</v>
+        <v>21.02339935302734</v>
       </c>
       <c r="I62" t="n">
-        <v>204.6867065429688</v>
+        <v>227.1670074462891</v>
       </c>
       <c r="J62" t="n">
-        <v>88.34397888183594</v>
+        <v>70.37956237792969</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>287.9661865234375</v>
+        <v>289.0946044921875</v>
       </c>
       <c r="H63" t="n">
-        <v>22.83000564575195</v>
+        <v>25.69163131713867</v>
       </c>
       <c r="I63" t="n">
-        <v>381.2436218261719</v>
+        <v>395.0901184082031</v>
       </c>
       <c r="J63" t="n">
-        <v>65.66786956787109</v>
+        <v>66.10920715332031</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>332.9128723144531</v>
+        <v>337.3069763183594</v>
       </c>
       <c r="H64" t="n">
-        <v>28.22869682312012</v>
+        <v>31.57850456237793</v>
       </c>
       <c r="I64" t="n">
-        <v>605.0097045898438</v>
+        <v>603.2113647460938</v>
       </c>
       <c r="J64" t="n">
-        <v>71.9935302734375</v>
+        <v>87.23899841308594</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>410.0652160644531</v>
+        <v>418.0049133300781</v>
       </c>
       <c r="H65" t="n">
-        <v>33.31330108642578</v>
+        <v>36.8580207824707</v>
       </c>
       <c r="I65" t="n">
-        <v>913.807373046875</v>
+        <v>889.22412109375</v>
       </c>
       <c r="J65" t="n">
-        <v>140.1378173828125</v>
+        <v>121.1798629760742</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>245.5030975341797</v>
+        <v>240.1307525634766</v>
       </c>
       <c r="H66" t="n">
-        <v>20.46891403198242</v>
+        <v>17.12239646911621</v>
       </c>
       <c r="I66" t="n">
-        <v>-98.3170166015625</v>
+        <v>-70.90314483642578</v>
       </c>
       <c r="J66" t="n">
-        <v>118.9028091430664</v>
+        <v>85.71312713623047</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>252.3628692626953</v>
+        <v>247.9504852294922</v>
       </c>
       <c r="H67" t="n">
-        <v>19.88266754150391</v>
+        <v>18.84112167358398</v>
       </c>
       <c r="I67" t="n">
-        <v>-44.19179153442383</v>
+        <v>-17.79055786132812</v>
       </c>
       <c r="J67" t="n">
-        <v>111.6951446533203</v>
+        <v>82.63204193115234</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>270.4756469726562</v>
+        <v>268.5694885253906</v>
       </c>
       <c r="H68" t="n">
-        <v>20.86808967590332</v>
+        <v>23.28188514709473</v>
       </c>
       <c r="I68" t="n">
-        <v>126.5300903320312</v>
+        <v>147.5961456298828</v>
       </c>
       <c r="J68" t="n">
-        <v>91.22283172607422</v>
+        <v>74.28083038330078</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>285.1115112304688</v>
+        <v>284.8852233886719</v>
       </c>
       <c r="H69" t="n">
-        <v>22.88036727905273</v>
+        <v>26.22359657287598</v>
       </c>
       <c r="I69" t="n">
-        <v>247.1983032226562</v>
+        <v>262.4107971191406</v>
       </c>
       <c r="J69" t="n">
-        <v>76.35128021240234</v>
+        <v>69.65090942382812</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>326.7541809082031</v>
+        <v>329.9064636230469</v>
       </c>
       <c r="H70" t="n">
-        <v>29.01615524291992</v>
+        <v>32.63811111450195</v>
       </c>
       <c r="I70" t="n">
-        <v>531.1629638671875</v>
+        <v>530.7936401367188</v>
       </c>
       <c r="J70" t="n">
-        <v>71.13609313964844</v>
+        <v>79.71444702148438</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_compo_XAI_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_compo_XAI_swish.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>275.6566467285156</v>
+        <v>283.3463134765625</v>
       </c>
       <c r="H2" t="n">
-        <v>37.77337265014648</v>
+        <v>42.95051574707031</v>
       </c>
       <c r="I2" t="n">
-        <v>728.8999633789062</v>
+        <v>729.58837890625</v>
       </c>
       <c r="J2" t="n">
-        <v>41.11751937866211</v>
+        <v>46.91998291015625</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>337.3184509277344</v>
+        <v>340.9416809082031</v>
       </c>
       <c r="H3" t="n">
-        <v>37.82985687255859</v>
+        <v>52.58269119262695</v>
       </c>
       <c r="I3" t="n">
-        <v>779.0947875976562</v>
+        <v>780.45751953125</v>
       </c>
       <c r="J3" t="n">
-        <v>51.82044982910156</v>
+        <v>51.39066696166992</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>400.865234375</v>
+        <v>400.6942138671875</v>
       </c>
       <c r="H4" t="n">
-        <v>35.55615615844727</v>
+        <v>56.62180709838867</v>
       </c>
       <c r="I4" t="n">
-        <v>815.6326293945312</v>
+        <v>817.9208984375</v>
       </c>
       <c r="J4" t="n">
-        <v>61.95095062255859</v>
+        <v>55.85120010375977</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>470.1160583496094</v>
+        <v>467.19775390625</v>
       </c>
       <c r="H5" t="n">
-        <v>31.63697814941406</v>
+        <v>55.53641510009766</v>
       </c>
       <c r="I5" t="n">
-        <v>851.710693359375</v>
+        <v>854.781494140625</v>
       </c>
       <c r="J5" t="n">
-        <v>72.90180969238281</v>
+        <v>61.70663452148438</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>553.9680786132812</v>
+        <v>549.6201171875</v>
       </c>
       <c r="H6" t="n">
-        <v>26.5239372253418</v>
+        <v>48.92593383789062</v>
       </c>
       <c r="I6" t="n">
-        <v>887.6235961914062</v>
+        <v>890.9132690429688</v>
       </c>
       <c r="J6" t="n">
-        <v>87.27268218994141</v>
+        <v>70.97592163085938</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>203.1129608154297</v>
+        <v>209.8406219482422</v>
       </c>
       <c r="H7" t="n">
-        <v>30.27355003356934</v>
+        <v>23.43775749206543</v>
       </c>
       <c r="I7" t="n">
-        <v>589.6943969726562</v>
+        <v>593.0977172851562</v>
       </c>
       <c r="J7" t="n">
-        <v>28.82192802429199</v>
+        <v>37.18341445922852</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>229.6512298583984</v>
+        <v>236.1319122314453</v>
       </c>
       <c r="H8" t="n">
-        <v>29.58929443359375</v>
+        <v>24.88568305969238</v>
       </c>
       <c r="I8" t="n">
-        <v>652.0182495117188</v>
+        <v>654.157958984375</v>
       </c>
       <c r="J8" t="n">
-        <v>33.63479232788086</v>
+        <v>42.36821365356445</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>288.2626037597656</v>
+        <v>292.3812561035156</v>
       </c>
       <c r="H9" t="n">
-        <v>28.45412445068359</v>
+        <v>32.45544815063477</v>
       </c>
       <c r="I9" t="n">
-        <v>734.7542114257812</v>
+        <v>735.4088745117188</v>
       </c>
       <c r="J9" t="n">
-        <v>44.99799728393555</v>
+        <v>49.63543701171875</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>345.5036926269531</v>
+        <v>347.0311584472656</v>
       </c>
       <c r="H10" t="n">
-        <v>27.16260147094727</v>
+        <v>37.66176223754883</v>
       </c>
       <c r="I10" t="n">
-        <v>789.08203125</v>
+        <v>788.8231811523438</v>
       </c>
       <c r="J10" t="n">
-        <v>55.00797653198242</v>
+        <v>54.84416198730469</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>430.8375244140625</v>
+        <v>429.59619140625</v>
       </c>
       <c r="H11" t="n">
-        <v>24.64217376708984</v>
+        <v>39.90638732910156</v>
       </c>
       <c r="I11" t="n">
-        <v>856.2367553710938</v>
+        <v>854.7546997070312</v>
       </c>
       <c r="J11" t="n">
-        <v>69.79887390136719</v>
+        <v>63.50604629516602</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>512.1994018554688</v>
+        <v>510.236083984375</v>
       </c>
       <c r="H12" t="n">
-        <v>21.84511375427246</v>
+        <v>37.2450065612793</v>
       </c>
       <c r="I12" t="n">
-        <v>919.0452270507812</v>
+        <v>915.3898315429688</v>
       </c>
       <c r="J12" t="n">
-        <v>88.19736480712891</v>
+        <v>77.98175811767578</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>608.7296142578125</v>
+        <v>607.59033203125</v>
       </c>
       <c r="H13" t="n">
-        <v>22.78986930847168</v>
+        <v>32.72940826416016</v>
       </c>
       <c r="I13" t="n">
-        <v>995.4852905273438</v>
+        <v>988.38916015625</v>
       </c>
       <c r="J13" t="n">
-        <v>109.4054489135742</v>
+        <v>95.79003143310547</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>172.3538360595703</v>
+        <v>176.3174285888672</v>
       </c>
       <c r="H14" t="n">
-        <v>29.21174621582031</v>
+        <v>29.7412166595459</v>
       </c>
       <c r="I14" t="n">
-        <v>378.0132141113281</v>
+        <v>385.9309997558594</v>
       </c>
       <c r="J14" t="n">
-        <v>28.65113067626953</v>
+        <v>28.64831161499023</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>187.904052734375</v>
+        <v>192.1871185302734</v>
       </c>
       <c r="H15" t="n">
-        <v>27.32907104492188</v>
+        <v>23.86991500854492</v>
       </c>
       <c r="I15" t="n">
-        <v>482.8603820800781</v>
+        <v>489.431396484375</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78198623657227</v>
+        <v>32.15639495849609</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>238.1669464111328</v>
+        <v>240.9747924804688</v>
       </c>
       <c r="H16" t="n">
-        <v>25.99738311767578</v>
+        <v>23.42502593994141</v>
       </c>
       <c r="I16" t="n">
-        <v>622.8226318359375</v>
+        <v>625.903564453125</v>
       </c>
       <c r="J16" t="n">
-        <v>37.28137588500977</v>
+        <v>40.60591506958008</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>246.9152069091797</v>
+        <v>250.28515625</v>
       </c>
       <c r="H17" t="n">
-        <v>23.5784797668457</v>
+        <v>20.40596389770508</v>
       </c>
       <c r="I17" t="n">
-        <v>650.8806762695312</v>
+        <v>654.2677001953125</v>
       </c>
       <c r="J17" t="n">
-        <v>42.87529373168945</v>
+        <v>46.62519836425781</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>301.7647399902344</v>
+        <v>303.6381530761719</v>
       </c>
       <c r="H18" t="n">
-        <v>22.42777252197266</v>
+        <v>24.39303016662598</v>
       </c>
       <c r="I18" t="n">
-        <v>742.4052124023438</v>
+        <v>742.82421875</v>
       </c>
       <c r="J18" t="n">
-        <v>53.30455780029297</v>
+        <v>54.86865615844727</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>382.9656066894531</v>
+        <v>383.1289978027344</v>
       </c>
       <c r="H19" t="n">
-        <v>22.35891151428223</v>
+        <v>28.33072280883789</v>
       </c>
       <c r="I19" t="n">
-        <v>842.0126953125</v>
+        <v>838.75244140625</v>
       </c>
       <c r="J19" t="n">
-        <v>71.94326782226562</v>
+        <v>68.35485076904297</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>470.3081970214844</v>
+        <v>469.8058776855469</v>
       </c>
       <c r="H20" t="n">
-        <v>22.90995407104492</v>
+        <v>30.06561088562012</v>
       </c>
       <c r="I20" t="n">
-        <v>932.5236206054688</v>
+        <v>925.6416015625</v>
       </c>
       <c r="J20" t="n">
-        <v>89.19505310058594</v>
+        <v>82.37925720214844</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>573.317626953125</v>
+        <v>573.8385620117188</v>
       </c>
       <c r="H21" t="n">
-        <v>24.32432746887207</v>
+        <v>30.34313774108887</v>
       </c>
       <c r="I21" t="n">
-        <v>1031.049926757812</v>
+        <v>1020.793884277344</v>
       </c>
       <c r="J21" t="n">
-        <v>111.7129669189453</v>
+        <v>104.5914688110352</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>687.0164184570312</v>
+        <v>690.7012329101562</v>
       </c>
       <c r="H22" t="n">
-        <v>27.58961486816406</v>
+        <v>31.20101165771484</v>
       </c>
       <c r="I22" t="n">
-        <v>1132.941284179688</v>
+        <v>1124.401489257812</v>
       </c>
       <c r="J22" t="n">
-        <v>136.8514404296875</v>
+        <v>133.5230255126953</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>174.5260467529297</v>
+        <v>178.1616668701172</v>
       </c>
       <c r="H23" t="n">
-        <v>27.03913116455078</v>
+        <v>29.82497787475586</v>
       </c>
       <c r="I23" t="n">
-        <v>268.51318359375</v>
+        <v>278.0634460449219</v>
       </c>
       <c r="J23" t="n">
-        <v>38.32705688476562</v>
+        <v>39.06514358520508</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8235626220703</v>
+        <v>186.1389617919922</v>
       </c>
       <c r="H24" t="n">
-        <v>24.66474151611328</v>
+        <v>25.80002021789551</v>
       </c>
       <c r="I24" t="n">
-        <v>338.6683044433594</v>
+        <v>348.7552795410156</v>
       </c>
       <c r="J24" t="n">
-        <v>37.6745491027832</v>
+        <v>35.82798004150391</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>201.7353515625</v>
+        <v>204.641845703125</v>
       </c>
       <c r="H25" t="n">
-        <v>22.27590751647949</v>
+        <v>21.72843742370605</v>
       </c>
       <c r="I25" t="n">
-        <v>448.7335205078125</v>
+        <v>457.9921875</v>
       </c>
       <c r="J25" t="n">
-        <v>37.63203430175781</v>
+        <v>36.01030349731445</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>227.4008941650391</v>
+        <v>229.8809356689453</v>
       </c>
       <c r="H26" t="n">
-        <v>20.8374080657959</v>
+        <v>19.97628021240234</v>
       </c>
       <c r="I26" t="n">
-        <v>546.0194091796875</v>
+        <v>553.4821166992188</v>
       </c>
       <c r="J26" t="n">
-        <v>41.57063293457031</v>
+        <v>41.52540969848633</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>269.8039855957031</v>
+        <v>271.48388671875</v>
       </c>
       <c r="H27" t="n">
-        <v>20.66864395141602</v>
+        <v>21.3593578338623</v>
       </c>
       <c r="I27" t="n">
-        <v>651.5877075195312</v>
+        <v>656.2313842773438</v>
       </c>
       <c r="J27" t="n">
-        <v>52.62276458740234</v>
+        <v>51.80551910400391</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>344.0143737792969</v>
+        <v>344.8064880371094</v>
       </c>
       <c r="H28" t="n">
-        <v>23.05538940429688</v>
+        <v>25.08224868774414</v>
       </c>
       <c r="I28" t="n">
-        <v>794.88720703125</v>
+        <v>794.061279296875</v>
       </c>
       <c r="J28" t="n">
-        <v>72.43401336669922</v>
+        <v>68.86263275146484</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>426.74560546875</v>
+        <v>427.334228515625</v>
       </c>
       <c r="H29" t="n">
-        <v>25.68948745727539</v>
+        <v>28.17601776123047</v>
       </c>
       <c r="I29" t="n">
-        <v>914.80810546875</v>
+        <v>909.2304077148438</v>
       </c>
       <c r="J29" t="n">
-        <v>91.84488677978516</v>
+        <v>87.11585235595703</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>547.2735595703125</v>
+        <v>548.6402587890625</v>
       </c>
       <c r="H30" t="n">
-        <v>28.65627861022949</v>
+        <v>31.66872215270996</v>
       </c>
       <c r="I30" t="n">
-        <v>1059.455932617188</v>
+        <v>1050.010498046875</v>
       </c>
       <c r="J30" t="n">
-        <v>112.7078323364258</v>
+        <v>111.3279571533203</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>662.5748291015625</v>
+        <v>666.828125</v>
       </c>
       <c r="H31" t="n">
-        <v>28.0893497467041</v>
+        <v>31.93284225463867</v>
       </c>
       <c r="I31" t="n">
-        <v>1176.847778320312</v>
+        <v>1174.241333007812</v>
       </c>
       <c r="J31" t="n">
-        <v>133.8538360595703</v>
+        <v>146.5953979492188</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>179.2235717773438</v>
+        <v>183.6304473876953</v>
       </c>
       <c r="H32" t="n">
-        <v>25.1068172454834</v>
+        <v>28.65418243408203</v>
       </c>
       <c r="I32" t="n">
-        <v>140.4651641845703</v>
+        <v>150.9873199462891</v>
       </c>
       <c r="J32" t="n">
-        <v>52.58083343505859</v>
+        <v>59.10526657104492</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>188.4533538818359</v>
+        <v>191.9927520751953</v>
       </c>
       <c r="H33" t="n">
-        <v>22.08751106262207</v>
+        <v>25.34894943237305</v>
       </c>
       <c r="I33" t="n">
-        <v>229.85009765625</v>
+        <v>241.2675933837891</v>
       </c>
       <c r="J33" t="n">
-        <v>50.47470855712891</v>
+        <v>52.02540969848633</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>203.9479827880859</v>
+        <v>206.8446044921875</v>
       </c>
       <c r="H34" t="n">
-        <v>19.68832397460938</v>
+        <v>23.27349472045898</v>
       </c>
       <c r="I34" t="n">
-        <v>333.6029968261719</v>
+        <v>345.2056579589844</v>
       </c>
       <c r="J34" t="n">
-        <v>47.14069366455078</v>
+        <v>44.90267181396484</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>226.8884887695312</v>
+        <v>229.2776641845703</v>
       </c>
       <c r="H35" t="n">
-        <v>18.63510704040527</v>
+        <v>22.93457221984863</v>
       </c>
       <c r="I35" t="n">
-        <v>429.4413757324219</v>
+        <v>440.8122863769531</v>
       </c>
       <c r="J35" t="n">
-        <v>47.24103927612305</v>
+        <v>43.58251953125</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>267.9251403808594</v>
+        <v>269.6986999511719</v>
       </c>
       <c r="H36" t="n">
-        <v>20.50275039672852</v>
+        <v>24.1458797454834</v>
       </c>
       <c r="I36" t="n">
-        <v>585.2098388671875</v>
+        <v>593.2942504882812</v>
       </c>
       <c r="J36" t="n">
-        <v>54.80481719970703</v>
+        <v>50.963623046875</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>318.7013854980469</v>
+        <v>320.0758972167969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.50736236572266</v>
+        <v>27.34971046447754</v>
       </c>
       <c r="I37" t="n">
-        <v>717.8704223632812</v>
+        <v>721.5613403320312</v>
       </c>
       <c r="J37" t="n">
-        <v>71.39252471923828</v>
+        <v>65.86100006103516</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>407.4729309082031</v>
+        <v>408.7774658203125</v>
       </c>
       <c r="H38" t="n">
-        <v>29.25901222229004</v>
+        <v>30.66847991943359</v>
       </c>
       <c r="I38" t="n">
-        <v>899.697265625</v>
+        <v>896.7476196289062</v>
       </c>
       <c r="J38" t="n">
-        <v>94.4019775390625</v>
+        <v>90.32335662841797</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>502.3414306640625</v>
+        <v>504.3728942871094</v>
       </c>
       <c r="H39" t="n">
-        <v>31.42311859130859</v>
+        <v>32.19840621948242</v>
       </c>
       <c r="I39" t="n">
-        <v>1040.062866210938</v>
+        <v>1035.791870117188</v>
       </c>
       <c r="J39" t="n">
-        <v>114.992561340332</v>
+        <v>119.4061813354492</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>633.5728759765625</v>
+        <v>637.412109375</v>
       </c>
       <c r="H40" t="n">
-        <v>29.88789749145508</v>
+        <v>32.53224945068359</v>
       </c>
       <c r="I40" t="n">
-        <v>1200.84765625</v>
+        <v>1206.697387695312</v>
       </c>
       <c r="J40" t="n">
-        <v>129.5938415527344</v>
+        <v>156.77880859375</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>188.0349273681641</v>
+        <v>193.3131713867188</v>
       </c>
       <c r="H41" t="n">
-        <v>22.14792442321777</v>
+        <v>25.76035690307617</v>
       </c>
       <c r="I41" t="n">
-        <v>49.43857955932617</v>
+        <v>59.6033821105957</v>
       </c>
       <c r="J41" t="n">
-        <v>66.96875762939453</v>
+        <v>78.22036743164062</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>196.2287139892578</v>
+        <v>200.7913665771484</v>
       </c>
       <c r="H42" t="n">
-        <v>19.35267066955566</v>
+        <v>24.19957542419434</v>
       </c>
       <c r="I42" t="n">
-        <v>118.0833969116211</v>
+        <v>128.8241729736328</v>
       </c>
       <c r="J42" t="n">
-        <v>65.57356262207031</v>
+        <v>73.09971618652344</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>205.3203277587891</v>
+        <v>209.3748016357422</v>
       </c>
       <c r="H43" t="n">
-        <v>17.57369804382324</v>
+        <v>23.57835388183594</v>
       </c>
       <c r="I43" t="n">
-        <v>180.0640106201172</v>
+        <v>191.7280883789062</v>
       </c>
       <c r="J43" t="n">
-        <v>62.31172943115234</v>
+        <v>66.08749389648438</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>231.6640777587891</v>
+        <v>234.9337921142578</v>
       </c>
       <c r="H44" t="n">
-        <v>17.70218086242676</v>
+        <v>24.8572826385498</v>
       </c>
       <c r="I44" t="n">
-        <v>344.7612609863281</v>
+        <v>356.5301818847656</v>
       </c>
       <c r="J44" t="n">
-        <v>55.07629013061523</v>
+        <v>54.11154556274414</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>254.9912567138672</v>
+        <v>257.913330078125</v>
       </c>
       <c r="H45" t="n">
-        <v>19.58379173278809</v>
+        <v>26.15018844604492</v>
       </c>
       <c r="I45" t="n">
-        <v>442.9223937988281</v>
+        <v>454.3852844238281</v>
       </c>
       <c r="J45" t="n">
-        <v>53.97777557373047</v>
+        <v>50.49213790893555</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>301.8847961425781</v>
+        <v>304.3069763183594</v>
       </c>
       <c r="H46" t="n">
-        <v>24.73239898681641</v>
+        <v>29.00872611999512</v>
       </c>
       <c r="I46" t="n">
-        <v>614.9207153320312</v>
+        <v>623.3203735351562</v>
       </c>
       <c r="J46" t="n">
-        <v>67.28307342529297</v>
+        <v>61.03257751464844</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>377.6826171875</v>
+        <v>379.9590759277344</v>
       </c>
       <c r="H47" t="n">
-        <v>31.0237979888916</v>
+        <v>32.24878692626953</v>
       </c>
       <c r="I47" t="n">
-        <v>824.0545043945312</v>
+        <v>826.8142700195312</v>
       </c>
       <c r="J47" t="n">
-        <v>95.39273071289062</v>
+        <v>89.87651824951172</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>484.5395202636719</v>
+        <v>486.9300842285156</v>
       </c>
       <c r="H48" t="n">
-        <v>34.34988784790039</v>
+        <v>33.88383865356445</v>
       </c>
       <c r="I48" t="n">
-        <v>1036.650390625</v>
+        <v>1036.950561523438</v>
       </c>
       <c r="J48" t="n">
-        <v>116.2632141113281</v>
+        <v>125.2909469604492</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>589.4765625</v>
+        <v>592.4251098632812</v>
       </c>
       <c r="H49" t="n">
-        <v>32.24397659301758</v>
+        <v>32.41245651245117</v>
       </c>
       <c r="I49" t="n">
-        <v>1187.037963867188</v>
+        <v>1196.021850585938</v>
       </c>
       <c r="J49" t="n">
-        <v>125.0473098754883</v>
+        <v>159.1616058349609</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>198.492919921875</v>
+        <v>204.8873291015625</v>
       </c>
       <c r="H50" t="n">
-        <v>19.03264808654785</v>
+        <v>23.44885635375977</v>
       </c>
       <c r="I50" t="n">
-        <v>-50.89982986450195</v>
+        <v>-41.91238784790039</v>
       </c>
       <c r="J50" t="n">
-        <v>79.55522155761719</v>
+        <v>95.28781127929688</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>208.1625366210938</v>
+        <v>213.911865234375</v>
       </c>
       <c r="H51" t="n">
-        <v>16.35515213012695</v>
+        <v>23.29094696044922</v>
       </c>
       <c r="I51" t="n">
-        <v>26.12572288513184</v>
+        <v>35.06558227539062</v>
       </c>
       <c r="J51" t="n">
-        <v>77.93723297119141</v>
+        <v>90.12356567382812</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>216.4627685546875</v>
+        <v>221.8614654541016</v>
       </c>
       <c r="H52" t="n">
-        <v>15.44872188568115</v>
+        <v>23.64080238342285</v>
       </c>
       <c r="I52" t="n">
-        <v>75.65811920166016</v>
+        <v>85.48662567138672</v>
       </c>
       <c r="J52" t="n">
-        <v>74.72779083251953</v>
+        <v>83.68849945068359</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>237.0957489013672</v>
+        <v>241.9318695068359</v>
       </c>
       <c r="H53" t="n">
-        <v>17.00592613220215</v>
+        <v>25.69806098937988</v>
       </c>
       <c r="I53" t="n">
-        <v>214.8123168945312</v>
+        <v>226.4966278076172</v>
       </c>
       <c r="J53" t="n">
-        <v>68.41527557373047</v>
+        <v>72.12009429931641</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>261.4952087402344</v>
+        <v>265.7739562988281</v>
       </c>
       <c r="H54" t="n">
-        <v>20.48796272277832</v>
+        <v>27.64428520202637</v>
       </c>
       <c r="I54" t="n">
-        <v>348.6189880371094</v>
+        <v>361.6273498535156</v>
       </c>
       <c r="J54" t="n">
-        <v>61.68889236450195</v>
+        <v>60.24042129516602</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>296.7771301269531</v>
+        <v>300.4759521484375</v>
       </c>
       <c r="H55" t="n">
-        <v>25.35836219787598</v>
+        <v>29.92974281311035</v>
       </c>
       <c r="I55" t="n">
-        <v>516.94482421875</v>
+        <v>528.8247680664062</v>
       </c>
       <c r="J55" t="n">
-        <v>66.18881225585938</v>
+        <v>60.78569412231445</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>349.2816162109375</v>
+        <v>352.5611877441406</v>
       </c>
       <c r="H56" t="n">
-        <v>30.77702903747559</v>
+        <v>32.07474899291992</v>
       </c>
       <c r="I56" t="n">
-        <v>694.0564575195312</v>
+        <v>704.03125</v>
       </c>
       <c r="J56" t="n">
-        <v>92.79403686523438</v>
+        <v>85.78923797607422</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>434.5616149902344</v>
+        <v>437.5701904296875</v>
       </c>
       <c r="H57" t="n">
-        <v>35.74566268920898</v>
+        <v>34.19209671020508</v>
       </c>
       <c r="I57" t="n">
-        <v>945.8170776367188</v>
+        <v>950.4918823242188</v>
       </c>
       <c r="J57" t="n">
-        <v>115.3735809326172</v>
+        <v>120.6990356445312</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>561.0119018554688</v>
+        <v>563.53271484375</v>
       </c>
       <c r="H58" t="n">
-        <v>34.48293304443359</v>
+        <v>32.30998992919922</v>
       </c>
       <c r="I58" t="n">
-        <v>1173.291137695312</v>
+        <v>1189.01904296875</v>
       </c>
       <c r="J58" t="n">
-        <v>127.6779403686523</v>
+        <v>170.3544616699219</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>219.157470703125</v>
+        <v>226.2957763671875</v>
       </c>
       <c r="H59" t="n">
-        <v>14.85575771331787</v>
+        <v>23.3654956817627</v>
       </c>
       <c r="I59" t="n">
-        <v>-63.71883773803711</v>
+        <v>-57.90117263793945</v>
       </c>
       <c r="J59" t="n">
-        <v>86.13861846923828</v>
+        <v>101.4266357421875</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>230.1239471435547</v>
+        <v>237.0361938476562</v>
       </c>
       <c r="H60" t="n">
-        <v>15.42643165588379</v>
+        <v>24.64607810974121</v>
       </c>
       <c r="I60" t="n">
-        <v>4.838182926177979</v>
+        <v>12.35570049285889</v>
       </c>
       <c r="J60" t="n">
-        <v>85.02876281738281</v>
+        <v>97.41400146484375</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>242.1185913085938</v>
+        <v>248.616455078125</v>
       </c>
       <c r="H61" t="n">
-        <v>17.41117477416992</v>
+        <v>26.12947082519531</v>
       </c>
       <c r="I61" t="n">
-        <v>98.36893463134766</v>
+        <v>107.7707138061523</v>
       </c>
       <c r="J61" t="n">
-        <v>78.16780090332031</v>
+        <v>85.67259979248047</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>261.4707946777344</v>
+        <v>267.4458312988281</v>
       </c>
       <c r="H62" t="n">
-        <v>21.02339935302734</v>
+        <v>28.02401161193848</v>
       </c>
       <c r="I62" t="n">
-        <v>227.1670074462891</v>
+        <v>239.4344940185547</v>
       </c>
       <c r="J62" t="n">
-        <v>70.37956237792969</v>
+        <v>73.06398010253906</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>289.0946044921875</v>
+        <v>294.4681091308594</v>
       </c>
       <c r="H63" t="n">
-        <v>25.69163131713867</v>
+        <v>30.19551277160645</v>
       </c>
       <c r="I63" t="n">
-        <v>395.0901184082031</v>
+        <v>408.3287048339844</v>
       </c>
       <c r="J63" t="n">
-        <v>66.10920715332031</v>
+        <v>65.16380310058594</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>337.3069763183594</v>
+        <v>341.9158020019531</v>
       </c>
       <c r="H64" t="n">
-        <v>31.57850456237793</v>
+        <v>32.35578536987305</v>
       </c>
       <c r="I64" t="n">
-        <v>603.2113647460938</v>
+        <v>616.2160034179688</v>
       </c>
       <c r="J64" t="n">
-        <v>87.23899841308594</v>
+        <v>82.09365081787109</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>418.0049133300781</v>
+        <v>421.714599609375</v>
       </c>
       <c r="H65" t="n">
-        <v>36.8580207824707</v>
+        <v>34.08230590820312</v>
       </c>
       <c r="I65" t="n">
-        <v>889.22412109375</v>
+        <v>898.485595703125</v>
       </c>
       <c r="J65" t="n">
-        <v>121.1798629760742</v>
+        <v>125.5741500854492</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>240.1307525634766</v>
+        <v>248.4639282226562</v>
       </c>
       <c r="H66" t="n">
-        <v>17.12239646911621</v>
+        <v>25.60001373291016</v>
       </c>
       <c r="I66" t="n">
-        <v>-70.90314483642578</v>
+        <v>-66.64373016357422</v>
       </c>
       <c r="J66" t="n">
-        <v>85.71312713623047</v>
+        <v>97.23100280761719</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>247.9504852294922</v>
+        <v>256.0917053222656</v>
       </c>
       <c r="H67" t="n">
-        <v>18.84112167358398</v>
+        <v>26.52247047424316</v>
       </c>
       <c r="I67" t="n">
-        <v>-17.79055786132812</v>
+        <v>-11.32270336151123</v>
       </c>
       <c r="J67" t="n">
-        <v>82.63204193115234</v>
+        <v>90.93888092041016</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>268.5694885253906</v>
+        <v>276.0721740722656</v>
       </c>
       <c r="H68" t="n">
-        <v>23.28188514709473</v>
+        <v>28.67110252380371</v>
       </c>
       <c r="I68" t="n">
-        <v>147.5961456298828</v>
+        <v>159.2471923828125</v>
       </c>
       <c r="J68" t="n">
-        <v>74.28083038330078</v>
+        <v>77.12246704101562</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>284.8852233886719</v>
+        <v>291.8590393066406</v>
       </c>
       <c r="H69" t="n">
-        <v>26.22359657287598</v>
+        <v>29.91250991821289</v>
       </c>
       <c r="I69" t="n">
-        <v>262.4107971191406</v>
+        <v>276.6438903808594</v>
       </c>
       <c r="J69" t="n">
-        <v>69.65090942382812</v>
+        <v>70.25164031982422</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>329.9064636230469</v>
+        <v>336.1414794921875</v>
       </c>
       <c r="H70" t="n">
-        <v>32.63811111450195</v>
+        <v>32.53116226196289</v>
       </c>
       <c r="I70" t="n">
-        <v>530.7936401367188</v>
+        <v>544.3390502929688</v>
       </c>
       <c r="J70" t="n">
-        <v>79.71444702148438</v>
+        <v>79.66304779052734</v>
       </c>
     </row>
   </sheetData>
